--- a/Scripts/RPM vs D.xlsx
+++ b/Scripts/RPM vs D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/js_villegas10_uniandes_edu_co/Documents/Tesis/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Universidad de Los Andes\Tesis\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D4F607-838E-4494-8663-E09A9782BF4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{63D4F607-838E-4494-8663-E09A9782BF4E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{4AD3CAB3-84D8-4BE2-9A30-58D477A2CFC9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{5872D8D3-098F-48AA-84B0-F293C5254F0E}"/>
   </bookViews>
@@ -86,12 +86,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,36 +123,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -162,9 +132,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>15 V</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -207,6 +174,43 @@
                   <c:y val="0.21254629629629629"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>D = 0.0749</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="el-GR" baseline="0">
+                        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                        <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:t>ω</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 998.1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -239,246 +243,246 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$40</c:f>
+              <c:f>Hoja1!$F$3:$F$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1520</c:v>
+                  <c:v>358.74499332443264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1700</c:v>
+                  <c:v>1360.0801068090789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1870</c:v>
+                  <c:v>1493.5914552736983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2050</c:v>
+                  <c:v>1627.102803738318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2220</c:v>
+                  <c:v>1760.6141522029375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2380</c:v>
+                  <c:v>1894.1255006675569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2540</c:v>
+                  <c:v>2027.6368491321764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2700</c:v>
+                  <c:v>2161.1481975967959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2860</c:v>
+                  <c:v>2294.6595460614153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3020</c:v>
+                  <c:v>2428.1708945260348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3170</c:v>
+                  <c:v>2561.6822429906547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3310</c:v>
+                  <c:v>2695.1935914552741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3440</c:v>
+                  <c:v>2828.7049399198936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3590</c:v>
+                  <c:v>2962.2162883845131</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3740</c:v>
+                  <c:v>3095.7276368491325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3880</c:v>
+                  <c:v>3229.238985313752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4030</c:v>
+                  <c:v>3362.7503337783714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4190</c:v>
+                  <c:v>3496.2616822429909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4330</c:v>
+                  <c:v>3629.7730307076104</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4330</c:v>
+                  <c:v>3763.2843791722298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4560</c:v>
+                  <c:v>3896.7957276368493</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4690</c:v>
+                  <c:v>4030.3070761014692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4810</c:v>
+                  <c:v>4163.8184245660887</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4930</c:v>
+                  <c:v>4297.3297730307077</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5060</c:v>
+                  <c:v>4430.8411214953276</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5180</c:v>
+                  <c:v>4564.3524699599466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5300</c:v>
+                  <c:v>4697.8638184245665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5420</c:v>
+                  <c:v>4831.3751668891864</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5520</c:v>
+                  <c:v>4964.8865153538054</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5620</c:v>
+                  <c:v>5098.3978638184253</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5740</c:v>
+                  <c:v>5231.9092122830443</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5850</c:v>
+                  <c:v>5365.4205607476642</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5960</c:v>
+                  <c:v>5498.9319092122832</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6050</c:v>
+                  <c:v>5632.4432576769032</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6150</c:v>
+                  <c:v>5765.9546061415222</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6240</c:v>
+                  <c:v>5899.4659546061421</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6350</c:v>
+                  <c:v>6032.9773030707611</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6500</c:v>
+                  <c:v>6166.488651535381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$40</c:f>
+              <c:f>Hoja1!$E$3:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1130</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1140</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>1150</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1160</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1180</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1190</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>1210</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>1220</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>1230</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>1240</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>1250</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>1260</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>1270</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>1280</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>1290</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>1300</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>1310</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>1320</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>1330</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>1340</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>1350</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>1360</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>1370</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>1380</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>1390</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>1410</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>1420</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>1430</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>1440</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>1450</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1470</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1480</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1490</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +526,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>RPM_pwm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -584,6 +643,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>D (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -633,37 +747,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1604,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196A9D7-F617-4E12-AC45-F87662E851BB}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,11 +1697,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1651,7 +1734,7 @@
       <c r="E3">
         <v>1025</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f>(E3-998.13)/0.0749</f>
         <v>358.74499332443264</v>
       </c>
@@ -1670,7 +1753,7 @@
       <c r="E4">
         <v>1100</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F44" si="1">(E4-998.13)/0.0749</f>
         <v>1360.0801068090789</v>
       </c>
@@ -1686,10 +1769,10 @@
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1110</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>1493.5914552736983</v>
       </c>
@@ -1708,7 +1791,7 @@
       <c r="E6">
         <v>1120</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>1627.102803738318</v>
       </c>
@@ -1727,7 +1810,7 @@
       <c r="E7">
         <v>1130</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>1760.6141522029375</v>
       </c>
@@ -1746,7 +1829,7 @@
       <c r="E8">
         <v>1140</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>1894.1255006675569</v>
       </c>
@@ -1762,10 +1845,10 @@
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1150</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>2027.6368491321764</v>
       </c>
@@ -1784,7 +1867,7 @@
       <c r="E10">
         <v>1160</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>2161.1481975967959</v>
       </c>
@@ -1803,7 +1886,7 @@
       <c r="E11">
         <v>1170</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>2294.6595460614153</v>
       </c>
@@ -1822,7 +1905,7 @@
       <c r="E12">
         <v>1180</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>2428.1708945260348</v>
       </c>
@@ -1838,10 +1921,10 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1190</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>2561.6822429906547</v>
       </c>
@@ -1860,7 +1943,7 @@
       <c r="E14">
         <v>1200</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>2695.1935914552741</v>
       </c>
@@ -1879,7 +1962,7 @@
       <c r="E15">
         <v>1210</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>2828.7049399198936</v>
       </c>
@@ -1898,7 +1981,7 @@
       <c r="E16">
         <v>1220</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>2962.2162883845131</v>
       </c>
@@ -1914,10 +1997,10 @@
         <f t="shared" si="0"/>
         <v>1270</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>1230</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>3095.7276368491325</v>
       </c>
@@ -1936,7 +2019,7 @@
       <c r="E18">
         <v>1240</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="1"/>
         <v>3229.238985313752</v>
       </c>
@@ -1955,7 +2038,7 @@
       <c r="E19">
         <v>1250</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
         <v>3362.7503337783714</v>
       </c>
@@ -1971,10 +2054,10 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1260</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>3496.2616822429909</v>
       </c>
@@ -1993,7 +2076,7 @@
       <c r="E21">
         <v>1270</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>3629.7730307076104</v>
       </c>
@@ -2012,7 +2095,7 @@
       <c r="E22">
         <v>1280</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>3763.2843791722298</v>
       </c>
@@ -2031,7 +2114,7 @@
       <c r="E23">
         <v>1290</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f t="shared" si="1"/>
         <v>3896.7957276368493</v>
       </c>
@@ -2047,10 +2130,10 @@
         <f t="shared" si="0"/>
         <v>1340</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1300</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>4030.3070761014692</v>
       </c>
@@ -2069,7 +2152,7 @@
       <c r="E25">
         <v>1310</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>4163.8184245660887</v>
       </c>
@@ -2088,7 +2171,7 @@
       <c r="E26">
         <v>1320</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>4297.3297730307077</v>
       </c>
@@ -2107,7 +2190,7 @@
       <c r="E27">
         <v>1330</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>4430.8411214953276</v>
       </c>
@@ -2123,10 +2206,10 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1340</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>4564.3524699599466</v>
       </c>
@@ -2145,7 +2228,7 @@
       <c r="E29">
         <v>1350</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>4697.8638184245665</v>
       </c>
@@ -2164,7 +2247,7 @@
       <c r="E30">
         <v>1360</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>4831.3751668891864</v>
       </c>
@@ -2183,7 +2266,7 @@
       <c r="E31">
         <v>1370</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>4964.8865153538054</v>
       </c>
@@ -2199,10 +2282,10 @@
         <f t="shared" si="0"/>
         <v>1420</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>1380</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>5098.3978638184253</v>
       </c>
@@ -2221,7 +2304,7 @@
       <c r="E33">
         <v>1390</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>5231.9092122830443</v>
       </c>
@@ -2240,7 +2323,7 @@
       <c r="E34">
         <v>1400</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>5365.4205607476642</v>
       </c>
@@ -2256,10 +2339,10 @@
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>1410</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>5498.9319092122832</v>
       </c>
@@ -2278,7 +2361,7 @@
       <c r="E36">
         <v>1420</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>5632.4432576769032</v>
       </c>
@@ -2297,7 +2380,7 @@
       <c r="E37">
         <v>1430</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>5765.9546061415222</v>
       </c>
@@ -2316,7 +2399,7 @@
       <c r="E38">
         <v>1440</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>5899.4659546061421</v>
       </c>
@@ -2332,10 +2415,10 @@
         <f t="shared" si="0"/>
         <v>1490</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>1450</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>6032.9773030707611</v>
       </c>
@@ -2354,16 +2437,16 @@
       <c r="E40">
         <v>1460</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>6166.488651535381</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>1470</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <f t="shared" si="1"/>
         <v>6300.0000000000009</v>
       </c>
@@ -2372,25 +2455,25 @@
       <c r="E42">
         <v>1480</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>6433.5113484646199</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>1490</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <f t="shared" si="1"/>
         <v>6567.0226969292398</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>1500</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <f t="shared" si="1"/>
         <v>6700.5340453938588</v>
       </c>
